--- a/ML module F19/ML Class schedule.xlsx
+++ b/ML module F19/ML Class schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9012DA6-B83D-436C-A695-CF6DA897041A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>This course introduces several fundamental concepts and methods for machine learning. The objective is to familiarize the students with some basic learning algorithms and techniques and their applications, as well as general questions related to analyzing and handling large data sets. Several software libraries and data sets publicly available will be used to illustrate the application of these algorithms. The emphasis will be thus on machine learning algorithms and applications, with some broad explanation of the underlying principles.</t>
   </si>
@@ -418,9 +414,6 @@
     <t>Classification: Tree + Random Forest</t>
   </si>
   <si>
-    <t>XGBOOST and recap</t>
-  </si>
-  <si>
     <t>Jupyter notebook + links</t>
   </si>
   <si>
@@ -476,18 +469,12 @@
   </si>
   <si>
     <t>Support Vectro Machines (SVR: Classification)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsupervised Learning ? </t>
-  </si>
-  <si>
-    <t>ISL chapter 10 + slides</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,7 +1117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1584,15 +1571,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>47</v>
@@ -1686,7 +1673,7 @@
         <v>81</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>53</v>
@@ -1704,7 +1691,7 @@
         <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,7 +1708,7 @@
         <v>82</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>54</v>
@@ -1750,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>57</v>
@@ -1782,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
@@ -1810,10 +1797,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>57</v>
@@ -1842,10 +1829,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>101</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>60</v>
@@ -1864,20 +1851,20 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="33">
         <v>43761</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="34">
         <v>8</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>89</v>
+      <c r="D9" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>60</v>
@@ -1896,20 +1883,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="33">
         <v>43768</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="34">
         <v>9</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>90</v>
+      <c r="D10" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>64</v>
@@ -1927,25 +1914,19 @@
         <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="37">
         <v>43775</v>
       </c>
-      <c r="C11" s="31">
-        <v>10</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="24" t="s">
         <v>67</v>
       </c>
@@ -1970,13 +1951,13 @@
         <v>43782</v>
       </c>
       <c r="C12" s="31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>69</v>
@@ -1996,13 +1977,13 @@
         <v>43789</v>
       </c>
       <c r="C13" s="31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>70</v>
@@ -2028,13 +2009,11 @@
         <v>43796</v>
       </c>
       <c r="C14" s="38">
-        <v>13</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>85</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D14" s="39"/>
       <c r="E14" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>74</v>
@@ -2054,7 +2033,7 @@
         <v>43797</v>
       </c>
       <c r="C15" s="38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>80</v>
